--- a/src/main/webapp/resources/xls/支付订单导入模板.xlsx
+++ b/src/main/webapp/resources/xls/支付订单导入模板.xlsx
@@ -32,6 +32,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1-店铺券
@@ -94,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,10 +106,10 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>0-天猫
-1-京东
-2-淘宝
-3-拼多多</t>
+          <t>1-天猫
+2-京东
+3-淘宝
+4-拼多多</t>
         </r>
       </text>
     </comment>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>订单编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,9 +150,6 @@
     <t>物流单号</t>
   </si>
   <si>
-    <t>订单日期</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -168,6 +166,45 @@
   </si>
   <si>
     <t>订单渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>订单日期(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*请设置单元格格式为文本,日期格式 1999-1-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,11 +236,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,8 +264,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -508,65 +547,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="7" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="11" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="12.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/resources/xls/支付订单导入模板.xlsx
+++ b/src/main/webapp/resources/xls/支付订单导入模板.xlsx
@@ -264,9 +264,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -550,77 +551,78 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="7" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="11" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="1" max="3" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="7" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="2"/>
+    <col min="9" max="11" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="2"/>
     <col min="13" max="13" width="12.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" style="2" customWidth="1"/>
+    <col min="16" max="17" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="2"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
